--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caterina\github\RLC_fibersim_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CAFBC2-153B-4482-A4D4-616D79B23444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AB86C-9B4D-43FB-AFFB-498C757F00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="2190" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_tr" sheetId="1" r:id="rId1"/>
@@ -1529,16 +1529,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caterina\github\RLC_fibersim_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AB86C-9B4D-43FB-AFFB-498C757F00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677172DA-81EE-4B07-97C4-84E4350FDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="2190" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_tr" sheetId="1" r:id="rId1"/>
@@ -200,15 +200,15 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6650481189851271E-2"/>
-          <c:y val="2.5428331875182269E-2"/>
+          <c:x val="0.12776159230096237"/>
+          <c:y val="3.0057961504811898E-2"/>
           <c:w val="0.79962314085739283"/>
           <c:h val="0.89814814814814814"/>
         </c:manualLayout>
@@ -508,11 +508,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -641,11 +641,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -782,6 +782,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pCa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -845,6 +900,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (norm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1529,16 +1644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4481,7 +4596,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
